--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>时间</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>2.优化nginx+tomcat 提高并发量</t>
+  </si>
+  <si>
+    <t>1. 腾讯CDN业务测试用例归类</t>
+  </si>
+  <si>
+    <t>2.研究disruptor框架</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1472,7 +1478,9 @@
       <c r="C12" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="16" customHeight="1">
@@ -1483,8 +1491,41 @@
       <c r="C13" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4">
+        <v>0.9</v>
+      </c>
       <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="3">
+        <v>43000</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>时间</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>2.研究disruptor框架</t>
+  </si>
+  <si>
+    <t>1.腾讯CDN业务问题归类</t>
+  </si>
+  <si>
+    <t>2.搭建disruptor</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1513,7 +1519,9 @@
       <c r="C15" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4">
+        <v>0.9</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="16" customHeight="1">
@@ -1524,8 +1532,41 @@
       <c r="C16" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4">
+        <v>0.7</v>
+      </c>
       <c r="E16" s="5"/>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>时间</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>2.搭建disruptor</t>
+  </si>
+  <si>
+    <t>1.开始编写腾讯CDN</t>
+  </si>
+  <si>
+    <t>2.开始学习solr+activityMQ</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1554,7 +1560,9 @@
       <c r="C18" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" ht="16" customHeight="1">
@@ -1565,8 +1573,37 @@
       <c r="C19" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="5"/>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>时间</t>
   </si>
@@ -53,6 +53,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>2017/9/21上午12:00:00</t>
+  </si>
+  <si>
     <t>1.学习python语法 2.看腾讯CDN项目代码</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
   </si>
   <si>
     <t>2.开始学习solr+activityMQ</t>
+  </si>
+  <si>
+    <t>1.继续开发腾讯CDN项目</t>
   </si>
 </sst>
 </file>
@@ -193,13 +199,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1325,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1357,253 +1363,288 @@
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="3">
-        <v>42997</v>
+      <c r="A2" t="s" s="2">
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.5</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="3">
-        <v>42997</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="5">
+        <v>43000</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="D6" s="3">
         <v>0.8</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="3">
-        <v>42997</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="3">
-        <v>42998</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.5</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="3">
-        <v>42999</v>
+      <c r="A9" s="5">
+        <v>43001</v>
       </c>
       <c r="B9" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="D10" s="3">
         <v>0.9</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="3">
-        <v>43000</v>
+      <c r="A12" s="5">
+        <v>43002</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.5</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.9</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="3">
-        <v>43000</v>
+      <c r="A15" s="5">
+        <v>43003</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.9</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3">
         <v>0.7</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="3">
-        <v>43003</v>
+      <c r="A18" s="5">
+        <v>43004</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="3"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
         <v>0.5</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="3">
-        <v>43003</v>
+      <c r="A21" s="5">
+        <v>43005</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="5">
+        <v>43006</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1633,74 +1674,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1728,74 +1769,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1331,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1632,7 +1632,9 @@
       <c r="C24" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>0.1</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="16" customHeight="1">
@@ -1643,8 +1645,37 @@
       <c r="C25" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>0.1</v>
+      </c>
       <c r="E25" s="4"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="5">
+        <v>43007</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>时间</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>1.继续开发腾讯CDN项目</t>
+  </si>
+  <si>
+    <t>2.继续学习solr+activityMQ</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1664,8 +1667,12 @@
       <c r="B27" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
+      <c r="C27" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.15</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" ht="16" customHeight="1">
@@ -1673,9 +1680,42 @@
       <c r="B28" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
+      <c r="C28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.12</v>
+      </c>
       <c r="E28" s="4"/>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="5">
+        <v>43008</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1334,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1705,7 +1705,9 @@
       <c r="C30" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>0.2</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" ht="16" customHeight="1">
@@ -1713,9 +1715,44 @@
       <c r="B31" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
+      <c r="C31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.2</v>
+      </c>
       <c r="E31" s="4"/>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="5">
+        <v>43019</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>时间</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>2.继续学习solr+activityMQ</t>
+  </si>
+  <si>
+    <t>2.研究多线程</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1740,7 +1743,9 @@
       <c r="C33" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>0.25</v>
+      </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" ht="16" customHeight="1">
@@ -1751,8 +1756,41 @@
       <c r="C34" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>0.2</v>
+      </c>
       <c r="E34" s="4"/>
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="5">
+        <v>43020</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1778,7 +1778,9 @@
       <c r="C36" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>0.3</v>
+      </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" ht="16" customHeight="1">
@@ -1789,8 +1791,41 @@
       <c r="C37" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3">
+        <v>0.05</v>
+      </c>
       <c r="E37" s="4"/>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" s="5">
+        <v>43021</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1813,7 +1813,9 @@
       <c r="C39" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3">
+        <v>0.35</v>
+      </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" ht="16" customHeight="1">
@@ -1824,8 +1826,41 @@
       <c r="C40" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3">
+        <v>0.05</v>
+      </c>
       <c r="E40" s="4"/>
+    </row>
+    <row r="41" ht="16" customHeight="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" ht="16" customHeight="1">
+      <c r="A42" s="5">
+        <v>43024</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" ht="16" customHeight="1">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1848,7 +1848,9 @@
       <c r="C42" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3">
+        <v>0.4</v>
+      </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" ht="16" customHeight="1">
@@ -1859,8 +1861,37 @@
       <c r="C43" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3">
+        <v>0.1</v>
+      </c>
       <c r="E43" s="4"/>
+    </row>
+    <row r="44" ht="16" customHeight="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" ht="16" customHeight="1">
+      <c r="A45" s="5">
+        <v>42660</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" ht="16" customHeight="1">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1875,13 +1875,15 @@
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="5">
-        <v>42660</v>
+        <v>43025</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>25</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3">
+        <v>0.45</v>
+      </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" ht="16" customHeight="1">
@@ -1890,8 +1892,37 @@
         <v>27</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3">
+        <v>0.15</v>
+      </c>
       <c r="E46" s="4"/>
+    </row>
+    <row r="47" ht="16" customHeight="1">
+      <c r="A47" s="5"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" ht="16" customHeight="1">
+      <c r="A48" s="5">
+        <v>43026</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" ht="16" customHeight="1">
+      <c r="A49" s="5"/>
+      <c r="B49" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1912,7 +1912,9 @@
         <v>25</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3">
+        <v>0.5</v>
+      </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" ht="16" customHeight="1">
@@ -1921,8 +1923,37 @@
         <v>27</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="3">
+        <v>0.2</v>
+      </c>
       <c r="E49" s="4"/>
+    </row>
+    <row r="50" ht="16" customHeight="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" ht="16" customHeight="1">
+      <c r="A51" s="5">
+        <v>43027</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" ht="16" customHeight="1">
+      <c r="A52" s="5"/>
+      <c r="B52" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1943,7 +1943,9 @@
         <v>25</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3">
+        <v>0.55</v>
+      </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" ht="16" customHeight="1">
@@ -1952,8 +1954,37 @@
         <v>27</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3">
+        <v>0.25</v>
+      </c>
       <c r="E52" s="4"/>
+    </row>
+    <row r="53" ht="16" customHeight="1">
+      <c r="A53" s="5"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" ht="16" customHeight="1">
+      <c r="A54" s="5">
+        <v>43028</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" ht="16" customHeight="1">
+      <c r="A55" s="5"/>
+      <c r="B55" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1974,7 +1974,9 @@
         <v>25</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3">
+        <v>0.6</v>
+      </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" ht="16" customHeight="1">
@@ -1983,8 +1985,37 @@
         <v>27</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="3">
+        <v>0.3</v>
+      </c>
       <c r="E55" s="4"/>
+    </row>
+    <row r="56" ht="16" customHeight="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" ht="16" customHeight="1">
+      <c r="A57" s="5">
+        <v>43031</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" ht="16" customHeight="1">
+      <c r="A58" s="5"/>
+      <c r="B58" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2005,7 +2005,9 @@
         <v>25</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3">
+        <v>0.65</v>
+      </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" ht="16" customHeight="1">
@@ -2014,8 +2016,39 @@
         <v>27</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="3">
+        <v>0.3</v>
+      </c>
       <c r="E58" s="4"/>
+    </row>
+    <row r="59" ht="16" customHeight="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" ht="16" customHeight="1">
+      <c r="A60" s="5">
+        <v>43032</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" ht="16" customHeight="1">
+      <c r="A61" s="5"/>
+      <c r="B61" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2047,8 +2047,37 @@
         <v>27</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3">
+        <v>0.3</v>
+      </c>
       <c r="E61" s="4"/>
+    </row>
+    <row r="62" ht="16" customHeight="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" ht="16" customHeight="1">
+      <c r="A63" s="5">
+        <v>43033</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" ht="16" customHeight="1">
+      <c r="A64" s="5"/>
+      <c r="B64" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>时间</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>2.研究多线程</t>
+  </si>
+  <si>
+    <t>2.整理面试题</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2067,7 +2070,9 @@
         <v>25</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
+      <c r="D63" s="3">
+        <v>0.75</v>
+      </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" ht="16" customHeight="1">
@@ -2076,8 +2081,37 @@
         <v>27</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3">
+        <v>0.35</v>
+      </c>
       <c r="E64" s="4"/>
+    </row>
+    <row r="65" ht="16" customHeight="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" ht="16" customHeight="1">
+      <c r="A66" s="5">
+        <v>43034</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" ht="16" customHeight="1">
+      <c r="A67" s="5"/>
+      <c r="B67" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2101,7 +2101,9 @@
         <v>25</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3">
+        <v>0.8</v>
+      </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" ht="16" customHeight="1">
@@ -2110,8 +2112,37 @@
         <v>28</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="3">
+        <v>0.05</v>
+      </c>
       <c r="E67" s="4"/>
+    </row>
+    <row r="68" ht="16" customHeight="1">
+      <c r="A68" s="5"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" ht="16" customHeight="1">
+      <c r="A69" s="5">
+        <v>43035</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" ht="16" customHeight="1">
+      <c r="A70" s="5"/>
+      <c r="B70" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2132,7 +2132,9 @@
         <v>25</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="3">
+        <v>0.85</v>
+      </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" ht="16" customHeight="1">
@@ -2141,8 +2143,37 @@
         <v>28</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="3">
+        <v>0.1</v>
+      </c>
       <c r="E70" s="4"/>
+    </row>
+    <row r="71" ht="16" customHeight="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" ht="16" customHeight="1">
+      <c r="A72" s="5">
+        <v>43038</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" ht="16" customHeight="1">
+      <c r="A73" s="5"/>
+      <c r="B73" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2163,7 +2163,9 @@
         <v>25</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3">
+        <v>0.9</v>
+      </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" ht="16" customHeight="1">
@@ -2172,8 +2174,37 @@
         <v>28</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3">
+        <v>0.15</v>
+      </c>
       <c r="E73" s="4"/>
+    </row>
+    <row r="74" ht="16" customHeight="1">
+      <c r="A74" s="5"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" ht="16" customHeight="1">
+      <c r="A75" s="5">
+        <v>43039</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" ht="16" customHeight="1">
+      <c r="A76" s="5"/>
+      <c r="B76" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2205,6 +2205,33 @@
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
+    </row>
+    <row r="77" ht="16" customHeight="1">
+      <c r="A77" s="5"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" ht="16" customHeight="1">
+      <c r="A78" s="5">
+        <v>43040</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" ht="16" customHeight="1">
+      <c r="A79" s="5"/>
+      <c r="B79" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2232,6 +2232,33 @@
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
+    </row>
+    <row r="80" ht="16" customHeight="1">
+      <c r="A80" s="5"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" ht="16" customHeight="1">
+      <c r="A81" s="5">
+        <v>43041</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" ht="16" customHeight="1">
+      <c r="A82" s="5"/>
+      <c r="B82" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>时间</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>2.整理面试题</t>
+  </si>
+  <si>
+    <t>2.cdn</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2194,7 +2197,9 @@
         <v>25</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="3">
+        <v>0.95</v>
+      </c>
       <c r="E75" s="4"/>
     </row>
     <row r="76" ht="16" customHeight="1">
@@ -2221,7 +2226,9 @@
         <v>25</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" ht="16" customHeight="1">
@@ -2248,7 +2255,9 @@
         <v>25</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" ht="16" customHeight="1">
@@ -2259,6 +2268,33 @@
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
+    </row>
+    <row r="83" ht="16" customHeight="1">
+      <c r="A83" s="5"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" ht="16" customHeight="1">
+      <c r="A84" s="5">
+        <v>43042</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" ht="16" customHeight="1">
+      <c r="A85" s="5"/>
+      <c r="B85" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/王将--每日要做的事.xlsx
+++ b/交流管理/项目日报/王将--每日要做的事.xlsx
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2295,6 +2295,33 @@
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="4"/>
+    </row>
+    <row r="86" ht="16" customHeight="1">
+      <c r="A86" s="5"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" ht="16" customHeight="1">
+      <c r="A87" s="5">
+        <v>43045</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" ht="16" customHeight="1">
+      <c r="A88" s="5"/>
+      <c r="B88" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
